--- a/metrics_labels.xlsx
+++ b/metrics_labels.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eno\Documents\Git_repo\ebrahimnorouzi_github\mseo.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD45176B-19BD-4461-A437-D810FD53F39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Foglio1"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
   <si>
     <t>selected</t>
   </si>
@@ -205,9 +211,6 @@
     <t>Absolute leaf cardinality</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -293,12 +296,47 @@
   <si>
     <t>Values for tangledness range from 0 (i.e. no tangledness) to 1 (i.e. each concept in the ontology has multiple super classes)</t>
   </si>
+  <si>
+    <t>Attribute Richness</t>
+  </si>
+  <si>
+    <t>Attributerichness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of attributes (slots) that are defined for each class can indicate both the quality of ontology design and the amount of information pertaining to instance data. In general we assume that the more slots that are defined the more knowledge the ontology conveys. The attribute richness (AR) is defined as the average number of attributes (slots) per class. It is computed as the number attributes for all classes (att) divided by the number of classes (C). </t>
+  </si>
+  <si>
+    <t>Equivalence Ratio</t>
+  </si>
+  <si>
+    <t>Equivalenceratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This metric calculates the ratio between similar classes and all classes in the ontology. </t>
+  </si>
+  <si>
+    <t>Absolute depth</t>
+  </si>
+  <si>
+    <t>Absolutedepth</t>
+  </si>
+  <si>
+    <t>he value of the absolute depth</t>
+  </si>
+  <si>
+    <t>Absolute breadth</t>
+  </si>
+  <si>
+    <t>Absolutebreadth</t>
+  </si>
+  <si>
+    <t>The value of the absolute breadth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,7 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -351,31 +389,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3d3d3d"/>
+        <color rgb="FF3D3D3D"/>
       </left>
       <right style="thin">
-        <color rgb="FF3d3d3d"/>
+        <color rgb="FF3D3D3D"/>
       </right>
       <top style="thin">
-        <color rgb="FF3d3d3d"/>
+        <color rgb="FF3D3D3D"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3d3d3d"/>
+        <color rgb="FF3D3D3D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -383,41 +421,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -428,10 +451,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -469,71 +492,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -561,7 +584,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -584,11 +607,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -597,13 +620,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -613,7 +636,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -622,7 +645,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -631,7 +654,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -639,10 +662,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -707,52 +730,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" style="7" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="46.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.58984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.40625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.58984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -774,8 +799,8 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="148.5">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="148.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -797,8 +822,8 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -820,8 +845,8 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -843,8 +868,8 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -866,8 +891,8 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -887,8 +912,8 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -910,256 +935,393 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="27.75">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="27.75">
-      <c r="A10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39">
-      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39">
-      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="27.75">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A24" s="2"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A25" s="2"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A27" s="2"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A28" s="2"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A29" s="2"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A31" s="2"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A32" s="2"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/metrics_labels.xlsx
+++ b/metrics_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eno\Documents\Git_repo\ebrahimnorouzi_github\mseo.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD45176B-19BD-4461-A437-D810FD53F39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A288238-9548-4CC5-821D-19C5A1EF0AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>Classrelationratio</t>
-  </si>
-  <si>
-    <t>Class/propery ratio</t>
   </si>
   <si>
     <t>Class Relation Ratio</t>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>The value of the absolute breadth</t>
+  </si>
+  <si>
+    <t>Class/property ratio</t>
   </si>
 </sst>
 </file>
@@ -737,8 +737,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD32"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -943,16 +943,16 @@
         <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1033,16 +1033,16 @@
         <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -1057,16 +1057,16 @@
         <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1074,43 +1074,43 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1118,19 +1118,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1139,22 +1139,22 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1162,22 +1162,22 @@
         <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1185,19 +1185,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1205,22 +1205,22 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1228,22 +1228,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1251,22 +1251,22 @@
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.75">

--- a/metrics_labels.xlsx
+++ b/metrics_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eno\Documents\Git_repo\ebrahimnorouzi_github\mseo.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A288238-9548-4CC5-821D-19C5A1EF0AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102CC089-A8D7-4BF7-9F95-6C929D240582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>selected</t>
   </si>
@@ -167,18 +167,6 @@
   </si>
   <si>
     <t xml:space="preserve">low (near 0) =&gt; poor axiomatisation&amp;#10;Higher =&gt; better&amp;#10;Extremely high = over axiomatisation </t>
-  </si>
-  <si>
-    <t>Classrelationratio</t>
-  </si>
-  <si>
-    <t>Class Relation Ratio</t>
-  </si>
-  <si>
-    <t>This metric describes the ratio between the classes and the relations in the ontology. &amp;#10;Note: The following ontology components are counted as relationships: Object Properties, Equivalent Classes, Disjoint Classes, Subclasses(Subclass of).&amp;#10;Typically good values are in the range [0.3, 0.8] indicating a sufficient number of properties connecting things with other things (i.e. object properties) and values (datatype properties).  The interpretation of the ratio always depends of the ontology size.</t>
-  </si>
-  <si>
-    <t>Low values (i.e near 0) indicate an ontology with many properties connecting few concepts. On the contrary, high values indicate an ontology with many concepts connected by few properties.</t>
   </si>
   <si>
     <t>Graphmetrics</t>
@@ -328,9 +316,6 @@
   </si>
   <si>
     <t>The value of the absolute breadth</t>
-  </si>
-  <si>
-    <t>Class/property ratio</t>
   </si>
 </sst>
 </file>
@@ -734,11 +719,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -943,16 +928,16 @@
         <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1033,128 +1018,128 @@
         <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="G17" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1162,22 +1147,19 @@
         <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>73</v>
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1185,19 +1167,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>96</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1205,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>74</v>
@@ -1214,13 +1199,13 @@
         <v>75</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1228,46 +1213,29 @@
         <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>84</v>
-      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A23" s="2"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24" s="2"/>
@@ -1301,12 +1269,12 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A29" s="2"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A30" s="2"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31" s="2"/>
@@ -1314,12 +1282,6 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A32" s="2"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/metrics_labels.xlsx
+++ b/metrics_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eno\Documents\Git_repo\ebrahimnorouzi_github\mseo.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102CC089-A8D7-4BF7-9F95-6C929D240582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C850B94-9928-441B-BBB3-D1DDA983E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="108">
   <si>
     <t>selected</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t xml:space="preserve">low (near 0) =&gt; poor axiomatisation&amp;#10;Higher =&gt; better&amp;#10;Extremely high = over axiomatisation </t>
+  </si>
+  <si>
+    <t>Classrelationratio</t>
+  </si>
+  <si>
+    <t>Class/propery ratio</t>
+  </si>
+  <si>
+    <t>Class Relation Ratio</t>
+  </si>
+  <si>
+    <t>This metric describes the ratio between the classes and the relations in the ontology. &amp;#10;Note: The following ontology components are counted as relationships: Object Properties, Equivalent Classes, Disjoint Classes, Subclasses(Subclass of).&amp;#10;Typically good values are in the range [0.3, 0.8] indicating a sufficient number of properties connecting things with other things (i.e. object properties) and values (datatype properties).  The interpretation of the ratio always depends of the ontology size.</t>
+  </si>
+  <si>
+    <t>Low values (i.e near 0) indicate an ontology with many properties connecting few concepts. On the contrary, high values indicate an ontology with many concepts connected by few properties.</t>
   </si>
   <si>
     <t>Graphmetrics</t>
@@ -316,6 +331,36 @@
   </si>
   <si>
     <t>The value of the absolute breadth</t>
+  </si>
+  <si>
+    <t>ClassMetrics</t>
+  </si>
+  <si>
+    <t>Classconnectivity</t>
+  </si>
+  <si>
+    <t>Classfulness</t>
+  </si>
+  <si>
+    <t>Classimportance</t>
+  </si>
+  <si>
+    <t>Classinheritancerichness</t>
+  </si>
+  <si>
+    <t>Classreadability</t>
+  </si>
+  <si>
+    <t>Classrelationshiprichness</t>
+  </si>
+  <si>
+    <t>Classchildrencount</t>
+  </si>
+  <si>
+    <t>Classinstancescount</t>
+  </si>
+  <si>
+    <t>Classpropertiescount</t>
   </si>
 </sst>
 </file>
@@ -719,11 +764,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -928,16 +973,16 @@
         <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1018,46 +1063,48 @@
         <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>55</v>
@@ -1076,55 +1123,53 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
+        <v>63</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+        <v>94</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>65</v>
@@ -1147,19 +1192,22 @@
         <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>54</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1167,22 +1215,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1190,13 +1235,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>76</v>
@@ -1205,7 +1250,7 @@
         <v>77</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -1213,74 +1258,199 @@
         <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A23" s="2"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A24" s="2"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A25" s="2"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A26" s="2"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A27" s="2"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A28" s="2"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A30" s="2"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A31" s="2"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
